--- a/data/main.xlsx
+++ b/data/main.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -390,15 +390,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="9.7109375" customWidth="1" min="3" max="3"/>
+    <col width="9.6640625" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -437,10 +437,8 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1589351394, </t>
-        </is>
+      <c r="E2" t="n">
+        <v>158935139487</v>
       </c>
     </row>
     <row r="3">
@@ -502,10 +500,8 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1589351394, </t>
-        </is>
+      <c r="E5" t="n">
+        <v>158935139487</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +525,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1589351394, 1576523934, </t>
+          <t xml:space="preserve">158935139487, 1576523934, </t>
         </is>
       </c>
     </row>
@@ -554,7 +550,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1589351394, 629384737, </t>
+          <t xml:space="preserve">158935139487, 629384737, </t>
         </is>
       </c>
     </row>
@@ -599,7 +595,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1589351394, 1009439316, 629384737, </t>
+          <t xml:space="preserve">158935139487, 1009439316, 629384737, </t>
         </is>
       </c>
     </row>
@@ -744,7 +740,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">818287368, 1589351394, 629384737, </t>
+          <t xml:space="preserve">818287368, 158935139487, 629384737, </t>
         </is>
       </c>
     </row>
@@ -769,7 +765,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1589351394, 818287368, 606441892, 629384737, 1576523934, </t>
+          <t xml:space="preserve">158935139487, 818287368, 606441892, 629384737, 1576523934, </t>
         </is>
       </c>
     </row>
@@ -994,7 +990,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">606441892, 629384737, 1576523934, 1589351394, </t>
+          <t xml:space="preserve">606441892, 629384737, 1576523934, 158935139487, </t>
         </is>
       </c>
     </row>
@@ -1019,7 +1015,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1576523934, 1589351394, 818287368, </t>
+          <t xml:space="preserve">1576523934, 158935139487, 818287368, </t>
         </is>
       </c>
     </row>
@@ -1044,7 +1040,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">1576523934, 1589351394, 818287368, </t>
+          <t xml:space="preserve">1576523934, 158935139487, 818287368, </t>
         </is>
       </c>
     </row>
@@ -1067,10 +1063,8 @@
       <c r="D31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1589351394, </t>
-        </is>
+      <c r="E31" t="n">
+        <v>158935139487</v>
       </c>
     </row>
     <row r="32">
@@ -1116,6 +1110,256 @@
       </c>
       <c r="D33" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ru</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIKd2OTHEG--tQT2CXiY083HCxdZ74NAALHwDEb__SZSFCZOmN_UGJ1AQADAgADcwADKwQ</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AQADx8AxG__0mUh4820</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ru</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIKemOTHtwVBrJBnVSqwue8U6cI5utMAALHwDEb__SZSFCZOmN_UGJ1AQADAgADcwADKwQ</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AQADx8AxG__0mUh4522</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ru</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIKfmOTHxoj20B_KDxvU1rggU42-kLGAALHwDEb__SZSFCZOmN_UGJ1AQADAgADcwADKwQ</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AQADx8AxG__0mUh4673</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ru</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIKgmOTH5u-7FsEJz9tBKyS-KzLS-tLAALHwDEb__SZSFCZOmN_UGJ1AQADAgADcwADKwQ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>AQADx8AxG__0mUh4866</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ru</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIKhGOTIGo3Vn5xRG1BkhGSw0e_6CwZAALIwjEb1A6ZSD569FFGabTvAQADAgADcwADKwQ</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>AQADyMIxG9QOmUh4590</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ru</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIKiWOTIh4NXFu-7MQgaGmkLCEvmvvsAALHwDEb__SZSFCZOmN_UGJ1AQADAgADcwADKwQ</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>AQADx8AxG__0mUh4655</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1092835220, </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>uz</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIKj2OT9rOOexkxi4xEOiwr36zKT19RAAIcwTEbFmygSMZ8pjaVgH5IAQADAgADcwADKwQ</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>AQADHMExGxZsoEh4927</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>247</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5481520185, 2037042371, 422119160, 740801637, 5164021436, 1576523934, 5022627567, 1081293400, 1109125514, 298312305, 991325680, 915526722, 1463732519, 1185072920, 805909070, 1549919726, 547614448, 1173665606, 1463176717, 589999424, 1413950398, 606441892, 852780144, 1147651701, 5582789653, 900800623, 143485027, 5137187078, 775093004, 845921443, 5281295979, 1176161788, 2103142586, 293122143, 69910352, 602598415, 1163928412, 540814129, 205984730, 591945254, 1203456582, 546535609, 45245074, 1296155101, 466553859, 1092835220, 1110418610, 69263218, 552680123, 931747725, 1473475282, 1915050483, 574677144, 320717964, 5131466097, 5004306363, 1639730798, 833616417, 1311974632, 79951575, 159824589, 163055421, 1287053148, 158935139487, 5218192028, 623236374, 163411193, 534634485, 2042750900, 1226698969, 623137746, 98565074, 432065174, 205639442, 1332569965, 360908334, 967656891, 39488330, 5017320281, 647108113, 1325085008, 80727275, 670429630, 470447926, 833800961, 2115137927, 1207918362, 1212313923, 886338552, 5030823518, 1331271091, 2019869495, 2053926037, 2026923456, 1255167901, 1313108632, 1388024227, 1279433602, 2115729969, 1240477328, 475456951, 1348119324, 1382770780, 2005559079, 1963125247, 5245395961, 1013137155, 947756433, 545497257, 895392207, 328408925, 273523540, 1943124912, 1094774611, 436301290, 1154187266, 1338913502, 737000644, 336920038, 221397992, 950180715, 69254023, 812000802, 216263500, 43975632, 1052380191, 158026714, 356464442, 5472913889, 948240219, 1864483493, 1935747984, 5374346548, 1297401920, 141808852, 2062134948, 810450513, 1338604174, 1375357834, 5413687704, 5198483872, 5546191611, 5270894279, 5489341860, 5545615060, 5430036587, 5541730841, 5538511198, 2042638493, 5337510998, 5570244600, 5446677141, 5366247063, 5352794691, 5545111736, 5341597998, 5383474066, 5466770154, 5461789657, 5494860788, 5536730445, 5490052258, 5486016171, 5376194437, 5427252424, 5521570243, 5573460364, 5315965997, 5558664711, 5468478090, 5464565003, 1464655489, 5547834372, 5585071330, 5429832244, 5437402559, 5530012130, 5404989868, 5575861497, 5367765653, 5374726189, 5465090755, 5326005605, 5503229184, 5546915461, 5542934061, 5399453169, 5393624705, 5587533783, 5571954805, 5326679558, 1715247636, 5300324326, 5552930085, 5542986918, 5433122429, 5444605550, 5134628930, 5562021241, 5481183353, 5500014501, 5595333743, 5444160002, 5419585511, 5452640397, 5578050667, 5338862909, 5393064306, 5541038259, 5401122643, 5445608732, 5503099548, 5516715924, 5324700371, 5509852706, 5582404931, 5435543894, 5569868161, 5520499857, 5543604775, 5468948075, 5518072179, 5565420903, 5403064982, 5499011149, 5468980181, 5401433095, 5312159430, 5544798905, 5589637454, 5362677729, 5508712655, 1235844550, 5513785343, 5439347921, 5327071173, 5434646414, 5575166292, 5439317153, 1303189851, 5544818662, 5309116733, 5594304362, 5492670922, 5531191213, 5530080268, 5400071954, </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>uz</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIKk2OWm3uz1W958dJXVidIXTXF3i7YAAKSzTEbk4iwSPtuFIWooSsaAQADAgADcwADKwQ</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>AQADks0xG5OIsEh4992</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>136</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5481520185, 5582789653, 800059696, 5245395961, 606934381, 900800623, 740801637, 905605226, 706879674, 1413950398, 620574195, 739261932, 2066208237, 561753503, 5218192028, 967269412, 1176161788, 294612740, 691643710, 865013322, 1315744367, 5017320281, 540148955, 1185072920, 5022627567, 675806434, 1173665606, 623137746, 591945254, 24803539, 1279612585, 5264384138, 1850048710, 420111147, 956098722, 1444579788, 905208760, 5607581945, 197563333, 1452416300, 768142201, 1772001070, 1419871804, 1834203626, 5187355549, 176049640, 838442754, 1492872852, 606441892, 53502521, 928881432, 5400331344, 5679804227, 84377831, 500353960, 756889602, 1463176717, 1029139310, 449915874, 877426972, 320294344, 182695116, 5779917631, 1114108772, 1143635272, 841398698, 1073970678, 731653423, 5652223358, 158935139487, 1946667861, 817290140, 739428028, 2131300809, 305726402, 775093004, 5320816828, 2037042371, 422119160, 5059757312, 1191984190, 534634485, 782756974, 5622073793, 5455439183, 523410859, 949552817, 1000729970, 1426086101, 89517632, 547614448, 507740226, 5041378508, 2126320520, 5434877076, 1241481759, 5257815539, 239434718, 1387681048, 645116761, 2036847141, 5633154776, 5546181672, 675032643, 992603539, 5858641103, 2106011729, 594943519, 5069836670, 155552661, 328316998, 1149024772, 1338604174, 1418221962, 862542370, 334826075, 1107095869, 1006673305, 5115767998, 771396495, 5408121214, 1372433483, 45206097, 1914799854, 112261327, 1414989032, 5034946085, 863762418, 1984335728, 5010129661, 750441552, 771568784, 193824379, 279566339, 948501749, 1790196042, </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>uz</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIKlWOXEdMvcoasq6y4oG25ZZn0a1OBAAIxwjEbk4i4SGzI8qlzZHEtAQADAgADcwADKwQ</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>AQADMcIxG5OIuEh4762</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>73</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">360908334, 5022627567, 5395406933, 883971199, 219531673, 422119160, 580984051, 5059757312, 2037042371, 1036366548, 5434877076, 534634485, 2141636985, 2131300809, 838442754, 1414948498, 294612740, 1338781424, 158935139487, 591945254, 5679804227, 5064951767, 1176161788, 1185072920, 606441892, 5109813477, 2120043149, 1598571818, 852780144, 1049821824, 398207730, 967656891, 782882651, 2101334630, 1781159664, 775093004, 1043376268, 640428826, 2120041418, 1426086101, 623137746, 956098722, 547614448, 623236374, 1992625523, 86212818, 5481520185, 5462402200, 1566368639, 5071178005, 1837828842, 1492158267, 1463176717, 249470515, 93714269, 1764383689, 645116761, 750219908, 1297698457, 568053829, 594943519, 1922453620, 1520736474, 1338604174, 1418221962, 862542370, 676277773, 1008257170, 1211183169, 1367671259, 818287368, 670726301, 105593380, </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>uz</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIKl2OX6q8CD3UTAAGlTkDf08RgWfx-KQAC7sExG8wvwUjs6glvN5P6wwEAAwIAA3MAAywE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>AQAD7sExG8wvwUh4348</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>111</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2037042371, 540814129, 265996733, 740801637, 961713425, 800059696, 1447920189, 2036847141, 1297698457, 775093004, 696228148, 706879674, 580984051, 43337587, 1036366548, 52563204, 158935139487, 739261932, 517770424, 757376456, 870185370, 271702792, 1051387957, 896958642, 1147651701, 1185072920, 706521434, 5712578262, 956098722, 1491376238, 1175149526, 37567021, 294612740, 5218192028, 943788317, 1173665606, 96911751, 1463176717, 623137746, 5467716151, 422119160, 746576686, 698719405, 5214386046, 840043966, 785425785, 276416211, 171271557, 101469415, 5077777801, 874852589, 192173050, 5116471647, 591945254, 343119729, 1032196899, 402378550, 317636940, 1201533447, 905605226, 514188032, 331724407, 1616834, 1176161788, 541452971, 848917451, 568053829, 1897369020, 223017089, 756889602, 2006737685, 176049640, 883971199, 1234666609, 1911877834, 1228411217, 829336469, 2072604008, 2068371713, 256432795, 869597593, 1270491755, 594943519, 5288472254, 586424652, 5662787537, 1556275204, 1428010837, 5229713814, 746938332, 768142201, 549147151, 5245395961, 1309656566, 808528479, 1378677600, 5644177684, 862542370, 640428826, 82424848, 899220446, 1939727875, 523347777, 653002287, 7382877, 5679804227, 1020124083, 547614448, 1392786154, 818287368, 1059693026, </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>uz</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIKmWOYT3HAP3b26ir0gVClOsTRZkCcAAKewzEbzC_BSM1W4BLdkM8oAQADAgADcwADLAQ</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AQADnsMxG8wvwUh4721</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>126</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">606441892, 1173665606, 740801637, 1411016252, 73167498, 328702961, 1295891190, 775093004, 1447920189, 2101334630, 1520736474, 1452416300, 1609040158, 1664935702, 122452082, 279178889, 5725979699, 623137746, 318767677, 5041378508, 2102460109, 869077436, 1045208393, 838957110, 559669031, 756889602, 846877691, 340706244, 606934381, 584429326, 602477926, 574677144, 5031385547, 1185072920, 5245128297, 1418221962, 203268562, 1448546199, 282552572, 1067356530, 580984051, 425687573, 5137160902, 52710001, 1805491612, 43337587, 201838647, 591945254, 312530740, 5214386046, 135640553, 349280496, 1521022684, 862542370, 1268944938, 1385340611, 1454943274, 247137728, 504096182, 1176161788, 705794597, 294612740, 1371026677, 1279370434, 1695362113, 1369288, 72221257, 1331745172, 183592422, 5797144361, 959757001, 1769418912, 557491794, 281492925, 5459271758, 561420554, 1605332441, 935654814, 5437796703, 759954346, 1748401528, 5704459089, 82424848, 294903391, 707549804, 594943519, 274630376, 5364958068, 11286702, 5368130636, 5928139160, 6299897, 5514147425, 1368610267, 1184381825, 70447774, 967656891, 999089604, 152624108, 7382877, 205639442, 5679804227, 296911506, 5384766817, 1349315795, 203671853, 343119729, 904681970, 5112024509, 852780144, 3432688, 1547564241, 547614448, 90323249, 158935139487, 1453502592, 706879674, 400808383, 998092057, 818287368, 2072602444, 629112958, 76716256, 252849731, 1816390623, 2081390212, </t>
+        </is>
       </c>
     </row>
   </sheetData>
